--- a/qa/01.测试用例/Demo/demo副本测试用例.xlsx
+++ b/qa/01.测试用例/Demo/demo副本测试用例.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="1260" windowWidth="26620" windowHeight="16980" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="11740" yWindow="1760" windowWidth="26620" windowHeight="16980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="211">
   <si>
     <t>caseID</t>
   </si>
@@ -670,10 +670,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可以看到及选中五个弱点：两只翅膀，舌头，眼罩后穴位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>眼罩后出现可打击穴位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -730,10 +726,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中间站位为混沌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在中间站位刷出混沌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -763,6 +755,106 @@
   </si>
   <si>
     <t>九尾狐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方携带1个怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方怪物站在1站位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间站位为白泽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局胜利，进入副本结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方携带1个怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方怪物站在1站位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进程清buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看进程清buff配置情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">配置了clear_buff = true </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff清除情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffA配置了notclear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffA没配notclear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffA被清除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffA没被清除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进程1中，对目标添加buffA，切换进程后，查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方携带1个怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方怪物站在1站位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到及选中3个弱点：两只翅膀，舌头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用照妖镜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法看到及选中眼罩后妖穴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据用例走读结果，修改用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -842,7 +934,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -861,8 +953,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -898,21 +996,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -976,8 +1061,38 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1015,18 +1130,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1060,8 +1163,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="63">
+  <cellStyles count="93">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -1094,6 +1214,21 @@
     <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1125,6 +1260,21 @@
     <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1399,10 +1549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B22:F24"/>
+  <dimension ref="B22:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1449,11 +1599,24 @@
       </c>
     </row>
     <row r="24" spans="2:6" ht="16" x14ac:dyDescent="0.15">
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="15"/>
+      <c r="B24" s="8">
+        <v>41750</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25" s="32"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1476,26 +1639,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A43" sqref="A43:XFD44"/>
+      <selection pane="bottomRight" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="19" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="7" style="19" customWidth="1"/>
-    <col min="5" max="5" width="42.5" style="18" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="42.5" style="24" customWidth="1"/>
-    <col min="8" max="8" width="4.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="18"/>
+    <col min="1" max="1" width="5" style="15" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="7" style="15" customWidth="1"/>
+    <col min="5" max="5" width="42.5" style="14" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="42.5" style="20" customWidth="1"/>
+    <col min="8" max="8" width="4.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.25">
@@ -1516,7 +1679,7 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:16" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1567,364 +1730,372 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="15">
         <v>1</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D4" s="19">
+      <c r="D4" s="15">
         <v>2</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="20" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="G10" s="25"/>
+    <row r="10" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="15">
         <v>2</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="15">
         <v>1</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F15" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G15" s="20" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F15" s="18" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F16" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G16" s="20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F16" s="18" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G17" s="20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D17" s="19">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D18" s="15">
         <v>2</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E18" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G18" s="20" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="G19" s="25"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="19" t="s">
+    <row r="20" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D21" s="15">
         <v>1</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E21" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="G23" s="25"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="19" t="s">
+    <row r="24" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="20" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C26" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D26" s="15">
         <v>1</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E26" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F26" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="G26" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F26" s="18" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F27" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="G27" s="20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D27" s="19">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D28" s="15">
         <v>2</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E28" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F28" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G28" s="20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F28" s="18" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F29" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G29" s="20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F29" s="18" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F30" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G30" s="20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="32" x14ac:dyDescent="0.25">
-      <c r="D30" s="19">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D31" s="15">
         <v>3</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E31" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F31" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G31" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="32" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="F31" s="18" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="F32" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G32" s="20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="F32" s="18" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="F33" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G33" s="20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="D33" s="19">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="D34" s="15">
         <v>4</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E34" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F34" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G34" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="F34" s="18" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="F35" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G35" s="20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="F35" s="18" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="F36" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G36" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="D36" s="19">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="D37" s="15">
         <v>5</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E37" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="G37" s="20" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="D37" s="19">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="D38" s="15">
         <v>6</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E38" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G37" s="24" t="s">
+      <c r="G38" s="20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="19" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D40" s="15">
         <v>1</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E40" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F40" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="G39" s="24" t="s">
+      <c r="G40" s="20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="D41" s="19">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="D42" s="15">
         <v>2</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E42" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="F42" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="G41" s="24" t="s">
+      <c r="G42" s="20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="G43" s="25"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="19" t="s">
+    <row r="44" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="17"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="G44" s="21"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="15" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1937,23 +2108,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="19" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="7" style="19" customWidth="1"/>
-    <col min="5" max="5" width="42.5" style="18" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="42.5" style="24" customWidth="1"/>
-    <col min="8" max="8" width="4.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="18"/>
+    <col min="1" max="1" width="5" style="15" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="7" style="15" customWidth="1"/>
+    <col min="5" max="5" width="42.5" style="14" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="42.5" style="20" customWidth="1"/>
+    <col min="8" max="8" width="4.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.25">
@@ -1974,7 +2145,7 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:16" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2025,468 +2196,536 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="15">
         <v>1</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="20" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D4" s="19">
+      <c r="D4" s="15">
         <v>2</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="20" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D5" s="18"/>
-      <c r="F5" s="18" t="s">
+      <c r="D5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="20" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="G10" s="25"/>
+    <row r="10" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="15">
         <v>2</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="15">
         <v>1</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F15" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G15" s="20" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F15" s="18" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F16" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G16" s="20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F16" s="18" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G17" s="20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D17" s="19">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D18" s="15">
         <v>2</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E18" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G18" s="20" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="G19" s="25"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="19" t="s">
+    <row r="20" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D21" s="15">
         <v>1</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E21" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="G23" s="25"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="D23" s="28">
+        <v>1</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="19" t="s">
+      <c r="B24" s="29"/>
+      <c r="C24" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+    </row>
+    <row r="27" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="G27" s="21"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="20" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C29" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D29" s="15">
         <v>1</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E29" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F29" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="24" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F26" s="18" t="s">
+      <c r="G29" s="27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F30" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="G30" s="20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F27" s="18" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F31" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G31" s="20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D28" s="19">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D32" s="15">
         <v>2</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E32" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F32" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G32" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F29" s="18" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F33" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G33" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F30" s="18" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F34" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G34" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F31" s="18" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F35" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G35" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D32" s="19">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D36" s="15">
         <v>3</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E36" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F36" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G36" s="20" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="F33" s="18" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="F37" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G37" s="20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="D34" s="19">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="D38" s="15">
         <v>4</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E38" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="F38" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G38" s="20" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="F35" s="18" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="F39" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G39" s="20" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="D36" s="19">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="D40" s="15">
         <v>5</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E40" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="G40" s="20" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D38" s="19">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D42" s="15">
         <v>1</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E42" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F42" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G38" s="24" t="s">
+      <c r="G42" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F43" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F44" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D45" s="15">
+        <v>2</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F45" s="14" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F39" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F40" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="G40" s="24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D41" s="19">
+      <c r="G45" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F46" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F47" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F48" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D49" s="15">
+        <v>3</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D50" s="15">
+        <v>4</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" s="15">
+        <v>1</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="G52" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F53" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G53" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="D55" s="28">
+        <v>1</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F55" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="G55" s="27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="29"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="G56" s="27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="14"/>
+      <c r="B59" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="15">
+        <v>1</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F59" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="G59" s="27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="D61" s="15">
         <v>2</v>
       </c>
-      <c r="E41" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="G41" s="24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F42" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="G42" s="24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F43" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="G43" s="24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F44" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="G44" s="24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D45" s="19">
-        <v>3</v>
-      </c>
-      <c r="E45" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="G45" s="24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D46" s="19">
-        <v>4</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="G46" s="24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D48" s="19">
-        <v>1</v>
-      </c>
-      <c r="E48" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="F48" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="G48" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F49" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="G49" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D51" s="19">
-        <v>1</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F51" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="G51" s="24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
-      <c r="D53" s="19">
-        <v>2</v>
-      </c>
-      <c r="E53" s="18" t="s">
+      <c r="E61" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="F53" s="18" t="s">
+      <c r="F61" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="G53" s="24" t="s">
+      <c r="G61" s="20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="21"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="G55" s="25"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C56" s="19" t="s">
+    <row r="63" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="17"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="G63" s="21"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C64" s="15" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2499,23 +2738,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="19" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="7" style="19" customWidth="1"/>
-    <col min="5" max="5" width="42.5" style="18" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="42.5" style="24" customWidth="1"/>
-    <col min="8" max="8" width="4.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="18"/>
+    <col min="1" max="1" width="5" style="15" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="7" style="15" customWidth="1"/>
+    <col min="5" max="5" width="42.5" style="14" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="42.5" style="20" customWidth="1"/>
+    <col min="8" max="8" width="4.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.25">
@@ -2536,7 +2775,7 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:16" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2587,567 +2826,651 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="15">
         <v>1</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="20" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D4" s="19">
+      <c r="D4" s="15">
         <v>2</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="20" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D5" s="18"/>
-      <c r="F5" s="18" t="s">
+      <c r="D5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="20" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="G10" s="25"/>
+    <row r="10" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="15">
         <v>2</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="15">
         <v>1</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F15" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G15" s="20" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F15" s="18" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F16" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G16" s="20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F16" s="18" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G17" s="20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D17" s="19">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D18" s="15">
         <v>2</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E18" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G18" s="20" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="G19" s="25"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="19" t="s">
+    <row r="20" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D21" s="15">
         <v>1</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E21" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="G23" s="25"/>
-    </row>
-    <row r="24" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="26" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="D23" s="28">
+        <v>1</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="29"/>
+      <c r="C24" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+    </row>
+    <row r="26" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="G26" s="21"/>
+    </row>
+    <row r="27" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="G24" s="29"/>
-    </row>
-    <row r="25" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="27" t="s">
+      <c r="D27" s="22"/>
+      <c r="G27" s="25"/>
+    </row>
+    <row r="28" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C28" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D28" s="22">
         <v>1</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E28" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F28" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="G25" s="29" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="F26" s="28" t="s">
+      <c r="G28" s="25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="F29" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G26" s="29" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="F27" s="28" t="s">
+      <c r="G29" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="F30" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="G27" s="29" t="s">
+      <c r="G30" s="25" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26">
+    <row r="31" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22">
         <v>2</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E31" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F31" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="G28" s="29" t="s">
+      <c r="G31" s="25" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="F29" s="28" t="s">
+    <row r="32" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="F32" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="G29" s="29" t="s">
+      <c r="G32" s="25" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26">
+    <row r="33" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22">
         <v>3</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E33" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F33" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="G30" s="29" t="s">
+      <c r="G33" s="25" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="F31" s="28" t="s">
+    <row r="34" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="F34" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="G31" s="29" t="s">
+      <c r="G34" s="27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="22"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22">
+        <v>4</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G36" s="27" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26">
+    <row r="37" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="22"/>
+      <c r="D37" s="22">
+        <v>5</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="F38" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="22"/>
+      <c r="D39" s="22">
+        <v>6</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="22"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="G40" s="25"/>
+    </row>
+    <row r="41" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="22"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22">
+        <v>1</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="22"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="F42" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="22"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="F43" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="G43" s="25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="22"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22">
+        <v>2</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="22"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="F45" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="G45" s="25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="22"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22">
+        <v>3</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="22"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="F47" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="G47" s="25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="22"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22">
         <v>4</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="E48" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="G32" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="26"/>
-      <c r="D33" s="26">
-        <v>5</v>
-      </c>
-      <c r="E33" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="F33" s="28" t="s">
+      <c r="F48" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="G33" s="29" t="s">
+      <c r="G48" s="25" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="F34" s="28" t="s">
+    <row r="49" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="22"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="F49" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="G34" s="29" t="s">
+      <c r="G49" s="25" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="26"/>
-      <c r="D35" s="26">
-        <v>6</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="G35" s="29" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="G36" s="29"/>
-    </row>
-    <row r="37" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26">
+    <row r="50" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="22"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22">
+        <v>4</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="22"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="G51" s="25"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" s="15">
         <v>1</v>
       </c>
-      <c r="E37" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="G37" s="29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="F38" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="G38" s="29" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="F39" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="G39" s="29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26">
+      <c r="E52" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="G52" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F53" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="G53" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="D55" s="28">
+        <v>1</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F55" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="G55" s="27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="29"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="G56" s="27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="22"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="G57" s="25"/>
+    </row>
+    <row r="58" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="22">
+        <v>1</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G58" s="20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="22"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="G59" s="25"/>
+    </row>
+    <row r="60" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="22"/>
+      <c r="D60" s="22">
         <v>2</v>
       </c>
-      <c r="E40" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F40" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="G40" s="29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="F41" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="G41" s="29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26">
-        <v>3</v>
-      </c>
-      <c r="E42" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="F42" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="G42" s="29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="F43" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="G43" s="29" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="26"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26">
-        <v>4</v>
-      </c>
-      <c r="E44" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="F44" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="G44" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="F45" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="G45" s="29" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26">
-        <v>4</v>
-      </c>
-      <c r="E46" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="G46" s="29" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="26"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="G47" s="29"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D48" s="19">
-        <v>1</v>
-      </c>
-      <c r="E48" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="F48" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="G48" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F49" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="G49" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="26"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="G50" s="29"/>
-    </row>
-    <row r="51" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C51" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D51" s="26">
-        <v>1</v>
-      </c>
-      <c r="E51" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F51" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="G51" s="29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="26"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="G52" s="29"/>
-    </row>
-    <row r="53" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="26"/>
-      <c r="D53" s="26">
-        <v>2</v>
-      </c>
-      <c r="E53" s="28" t="s">
+      <c r="E60" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F53" s="28" t="s">
+      <c r="F60" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="G53" s="29" t="s">
+      <c r="G60" s="25" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="21"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="G55" s="25"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C56" s="19" t="s">
+    <row r="62" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="17"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="G62" s="21"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C63" s="15" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3160,23 +3483,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P59"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="19" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="7" style="19" customWidth="1"/>
-    <col min="5" max="5" width="42.5" style="18" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="42.5" style="24" customWidth="1"/>
-    <col min="8" max="8" width="4.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="18"/>
+    <col min="1" max="1" width="5" style="15" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="7" style="15" customWidth="1"/>
+    <col min="5" max="5" width="42.5" style="14" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="42.5" style="20" customWidth="1"/>
+    <col min="8" max="8" width="4.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.25">
@@ -3197,7 +3520,7 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:16" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -3247,476 +3570,540 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="16" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="15">
         <v>1</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.25">
-      <c r="D4" s="19">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D4" s="15">
         <v>2</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16" x14ac:dyDescent="0.25">
-      <c r="D5" s="18"/>
-      <c r="F5" s="18" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.25">
-      <c r="F6" s="18" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.25">
-      <c r="F7" s="18" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="16" x14ac:dyDescent="0.25">
-      <c r="F8" s="18" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="G10" s="25"/>
-    </row>
-    <row r="11" spans="1:16" ht="16" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+    <row r="10" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
         <v>2</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="16" x14ac:dyDescent="0.25">
-      <c r="B14" s="20" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="15">
         <v>1</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F15" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G15" s="20" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="16" x14ac:dyDescent="0.25">
-      <c r="F15" s="18" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F16" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G16" s="20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.25">
-      <c r="F16" s="18" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G17" s="20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="D17" s="19">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D18" s="15">
         <v>2</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E18" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G18" s="20" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="G19" s="25"/>
-    </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="C20" s="19" t="s">
+    <row r="20" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D21" s="15">
         <v>1</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E21" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="G23" s="25"/>
-    </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="C24" s="19" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="D23" s="28">
+        <v>1</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="29"/>
+      <c r="C24" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+    </row>
+    <row r="26" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="G26" s="21"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="B25" s="20" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C28" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D28" s="15">
         <v>1</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E28" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F28" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="G28" s="20" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="F26" s="18" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F29" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="G29" s="20" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="F27" s="18" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F30" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G30" s="20" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="D28" s="19">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D31" s="15">
         <v>2</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E31" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F31" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G31" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="F29" s="18" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F32" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G32" s="20" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="D30" s="19">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D33" s="15">
         <v>3</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E33" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F33" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G33" s="20" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="F31" s="18" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="F34" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G34" s="20" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="D32" s="19">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="D35" s="15">
         <v>4</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E35" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F35" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G35" s="20" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="F33" s="18" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="F36" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G36" s="20" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="F34" s="18" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="F37" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G37" s="20" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="D35" s="19">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="D38" s="15">
         <v>5</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E38" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="F38" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G38" s="20" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="D37" s="19">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D40" s="15">
         <v>1</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E40" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="F37" s="18" t="s">
+      <c r="F40" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G37" s="24" t="s">
+      <c r="G40" s="20" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="F38" s="18" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F41" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G38" s="24" t="s">
+      <c r="G41" s="20" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="F39" s="18" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F42" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="G39" s="24" t="s">
+      <c r="G42" s="20" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="D40" s="19">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D43" s="15">
         <v>2</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E43" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="G40" s="24" t="s">
+      <c r="G43" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="F41" s="18" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F44" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="G41" s="24" t="s">
+      <c r="G44" s="20" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="D42" s="19">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D45" s="15">
         <v>3</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E45" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G45" s="20" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="E43" s="18" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E46" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="G43" s="24" t="s">
+      <c r="G46" s="20" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="B45" s="20" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C48" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D45" s="19">
+      <c r="D48" s="15">
         <v>1</v>
       </c>
-      <c r="E45" s="24" t="s">
+      <c r="E48" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="F45" s="18" t="s">
+      <c r="F48" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="G45" s="24" t="s">
+      <c r="G48" s="20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="F46" s="18" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F49" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="G46" s="24" t="s">
+      <c r="G49" s="20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="B48" s="20" t="s">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C51" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D51" s="15">
+        <v>1</v>
+      </c>
+      <c r="E51" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="D48" s="19">
+      <c r="G51" s="20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="D53" s="28">
         <v>1</v>
       </c>
-      <c r="E48" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="G48" s="24" t="s">
+      <c r="E53" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F53" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="G53" s="27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="29"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="G54" s="27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="15">
+        <v>1</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G56" s="20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="D58" s="15">
+        <v>2</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G58" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="17"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="G60" s="21"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C61" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="A50" s="18"/>
-      <c r="B50" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" s="19">
-        <v>1</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F50" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="G50" s="24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
-      <c r="D52" s="19">
-        <v>2</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F52" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="G52" s="24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="G54" s="25"/>
-    </row>
-    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="C55" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
